--- a/final_project/附件02：项目开发周期表.xlsx
+++ b/final_project/附件02：项目开发周期表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12130" windowHeight="12060"/>
+    <workbookView windowWidth="24930" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>项目总计工时</t>
   </si>
   <si>
-    <t>320小时/4人</t>
+    <t>350小时/4人</t>
   </si>
   <si>
     <t>项目开始</t>
@@ -106,14 +106,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">里程碑01：                    </t>
     </r>
     <r>
@@ -140,22 +132,12 @@
     </r>
   </si>
   <si>
-    <t>是否需要加班：是</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">是否需要加班：是 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
+    <t>是否需要加班：是   工作任务：</t>
+  </si>
+  <si>
+    <t>是否需要加班：是     工作任务：</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -175,15 +157,30 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>实现数据爬取以及数据预处理，并根据爬取的数据构建出neo4j数据库（爬取与处理复杂，数据项量级在数十万左右）</t>
+      <t xml:space="preserve">实现数据爬取以及数据预处理，并根据爬取的数据构建出Neo4j数据库（爬取与处理复杂，数据项量级在二十万左右）      </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">工作任务：
-</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工作任务：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">里程碑03：                  </t>
     </r>
     <r>
@@ -221,7 +218,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">实现优美的前端（js以及echarts）以及扩展功能实现 </t>
+      <t xml:space="preserve">实现优美的前端（JS以及Echarts）以及扩展功能实现，以及前后端API的对接工作。 </t>
     </r>
     <r>
       <rPr>
@@ -272,7 +269,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +294,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -448,7 +452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +486,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,10 +964,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -966,36 +976,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1005,98 +1012,101 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1158,10 +1168,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1170,7 +1177,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1551,7 +1558,7 @@
   <dimension ref="A2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1731,22 +1738,22 @@
       <c r="A10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="24" t="s">
         <v>10</v>
       </c>
     </row>
